--- a/documentacion/estudioCosteProyecto.xlsx
+++ b/documentacion/estudioCosteProyecto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Documents\vscode\Proyecto_Integrado\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4C3140-D9D2-4A2C-B602-FF691E86842B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F335875-101D-4BD4-AD98-BE8C78061FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7CD85CB2-67C0-4508-8110-69F2D6750F10}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -151,7 +151,7 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,7 +475,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:B12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,8 +561,8 @@
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <f>B10*12</f>
-        <v>3360</v>
+        <f>B10*14.62</f>
+        <v>4093.6</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
       </c>
       <c r="B12" s="3">
         <f>B11*4</f>
-        <v>13440</v>
+        <v>16374.4</v>
       </c>
     </row>
   </sheetData>
